--- a/Qualitative study.xlsx
+++ b/Qualitative study.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rasmus/master_thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rasmus/master_thesis/TeamFinder/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -50,18 +54,6 @@
     <t>Android</t>
   </si>
   <si>
-    <t>Consistent qualitative/quantitative</t>
-  </si>
-  <si>
-    <t>Inconsistent qualitative/quantitative</t>
-  </si>
-  <si>
-    <t>Thought more than one was native</t>
-  </si>
-  <si>
-    <t>Thought one was native</t>
-  </si>
-  <si>
     <t>Preferred 2nd tested app</t>
   </si>
   <si>
@@ -80,7 +72,19 @@
     <t>Preferred one app</t>
   </si>
   <si>
-    <t>Preferred more than one app</t>
+    <t>Consistent result</t>
+  </si>
+  <si>
+    <t>Inconsistent result</t>
+  </si>
+  <si>
+    <t>Preferred two apps</t>
+  </si>
+  <si>
+    <t>Most native app</t>
+  </si>
+  <si>
+    <t>Two most native apps</t>
   </si>
 </sst>
 </file>
@@ -130,6 +134,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC40A1E"/>
+      <color rgb="FFCC1E01"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -152,63 +162,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Qualitative study</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -216,15 +170,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PWA</c:v>
+                  <c:v>React Native</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -245,22 +199,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Consistent qualitative/quantitative</c:v>
+                  <c:v>Consistent result</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Inconsistent qualitative/quantitative</c:v>
+                  <c:v>Inconsistent result</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Preferred one app</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Preferred more than one app</c:v>
+                  <c:v>Preferred two apps</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Thought one was native</c:v>
+                  <c:v>Most native app</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thought more than one was native</c:v>
+                  <c:v>Two most native apps</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Preferred 1st tested app</c:v>
@@ -276,51 +230,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>React Native</c:v>
+                  <c:v>Android</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -341,22 +295,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Consistent qualitative/quantitative</c:v>
+                  <c:v>Consistent result</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Inconsistent qualitative/quantitative</c:v>
+                  <c:v>Inconsistent result</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Preferred one app</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Preferred more than one app</c:v>
+                  <c:v>Preferred two apps</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Thought one was native</c:v>
+                  <c:v>Most native app</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thought more than one was native</c:v>
+                  <c:v>Two most native apps</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Preferred 1st tested app</c:v>
@@ -372,15 +326,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.0</c:v>
@@ -389,16 +343,16 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.0</c:v>
@@ -408,15 +362,15 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Android</c:v>
+                  <c:v>PWA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -437,22 +391,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Consistent qualitative/quantitative</c:v>
+                  <c:v>Consistent result</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Inconsistent qualitative/quantitative</c:v>
+                  <c:v>Inconsistent result</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Preferred one app</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Preferred more than one app</c:v>
+                  <c:v>Preferred two apps</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Thought one was native</c:v>
+                  <c:v>Most native app</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thought more than one was native</c:v>
+                  <c:v>Two most native apps</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Preferred 1st tested app</c:v>
@@ -468,36 +422,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,11 +467,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-910420848"/>
-        <c:axId val="-910491472"/>
+        <c:axId val="529315632"/>
+        <c:axId val="529319008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-910420848"/>
+        <c:axId val="529315632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +499,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -560,7 +514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910491472"/>
+        <c:crossAx val="529319008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-910491472"/>
+        <c:axId val="529319008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910420848"/>
+        <c:crossAx val="529315632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -646,7 +600,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1274,13 +1228,413 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="1079500"/>
+          <a:ext cx="14224000" cy="6502400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Read_First"/>
+      <sheetName val="Data1"/>
+      <sheetName val="DT1"/>
+      <sheetName val="Data2"/>
+      <sheetName val="DT2"/>
+      <sheetName val="Data3"/>
+      <sheetName val="DT3"/>
+      <sheetName val="Scale_Means"/>
+      <sheetName val="T-Test"/>
+      <sheetName val="Items"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>React Native</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>Android</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>PWA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Attractiveness</v>
+          </cell>
+          <cell r="B6">
+            <v>1.8333333333333333</v>
+          </cell>
+          <cell r="E6">
+            <v>0.4328168195446695</v>
+          </cell>
+          <cell r="I6">
+            <v>1.6333333333333333</v>
+          </cell>
+          <cell r="L6">
+            <v>0.42396029587032547</v>
+          </cell>
+          <cell r="P6">
+            <v>1.1833333333333333</v>
+          </cell>
+          <cell r="S6">
+            <v>0.80081846174834836</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Perspicuity</v>
+          </cell>
+          <cell r="B7">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="E7">
+            <v>0.29938944395140188</v>
+          </cell>
+          <cell r="I7">
+            <v>1.85</v>
+          </cell>
+          <cell r="L7">
+            <v>0.49648122588996874</v>
+          </cell>
+          <cell r="P7">
+            <v>2.125</v>
+          </cell>
+          <cell r="S7">
+            <v>0.45761649808825899</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Efficiency</v>
+          </cell>
+          <cell r="B8">
+            <v>2.1</v>
+          </cell>
+          <cell r="E8">
+            <v>0.40140734434016734</v>
+          </cell>
+          <cell r="I8">
+            <v>2.1</v>
+          </cell>
+          <cell r="L8">
+            <v>0.35932673049900971</v>
+          </cell>
+          <cell r="P8">
+            <v>2</v>
+          </cell>
+          <cell r="S8">
+            <v>0.33472757421059884</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Dependability</v>
+          </cell>
+          <cell r="B9">
+            <v>2</v>
+          </cell>
+          <cell r="E9">
+            <v>0.45027065192068505</v>
+          </cell>
+          <cell r="I9">
+            <v>1.7749999999999999</v>
+          </cell>
+          <cell r="L9">
+            <v>0.36117798814352531</v>
+          </cell>
+          <cell r="P9">
+            <v>1.675</v>
+          </cell>
+          <cell r="S9">
+            <v>0.86132556838082575</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Stimulation</v>
+          </cell>
+          <cell r="B10">
+            <v>1.4750000000000001</v>
+          </cell>
+          <cell r="E10">
+            <v>0.57258871769123865</v>
+          </cell>
+          <cell r="I10">
+            <v>1.325</v>
+          </cell>
+          <cell r="L10">
+            <v>0.41351937211649514</v>
+          </cell>
+          <cell r="P10">
+            <v>0.97499999999999998</v>
+          </cell>
+          <cell r="S10">
+            <v>0.81157262581043632</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Novelty</v>
+          </cell>
+          <cell r="B11">
+            <v>0.52500000000000002</v>
+          </cell>
+          <cell r="E11">
+            <v>0.70610859134361048</v>
+          </cell>
+          <cell r="I11">
+            <v>0.47499999999999998</v>
+          </cell>
+          <cell r="L11">
+            <v>0.78483581160606841</v>
+          </cell>
+          <cell r="P11">
+            <v>0.47499999999999998</v>
+          </cell>
+          <cell r="S11">
+            <v>0.6174232214285108</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Read_First"/>
+      <sheetName val="Data1"/>
+      <sheetName val="DT1"/>
+      <sheetName val="Data2"/>
+      <sheetName val="DT2"/>
+      <sheetName val="Data3"/>
+      <sheetName val="DT3"/>
+      <sheetName val="Scale_Means"/>
+      <sheetName val="T-Test"/>
+      <sheetName val="Items"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>React Native</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>Android</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>PWA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Attractiveness</v>
+          </cell>
+          <cell r="B6">
+            <v>1.6111111111111112</v>
+          </cell>
+          <cell r="E6">
+            <v>0.27751957770140268</v>
+          </cell>
+          <cell r="I6">
+            <v>1.5111111111111108</v>
+          </cell>
+          <cell r="L6">
+            <v>0.28772681822087343</v>
+          </cell>
+          <cell r="P6">
+            <v>1.4055555555555557</v>
+          </cell>
+          <cell r="S6">
+            <v>0.41753939829834502</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Perspicuity</v>
+          </cell>
+          <cell r="B7">
+            <v>1.95</v>
+          </cell>
+          <cell r="E7">
+            <v>0.3564428850096219</v>
+          </cell>
+          <cell r="I7">
+            <v>1.9583333333333333</v>
+          </cell>
+          <cell r="L7">
+            <v>0.31210924884760427</v>
+          </cell>
+          <cell r="P7">
+            <v>2.0666666666666669</v>
+          </cell>
+          <cell r="S7">
+            <v>0.35520425490623192</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Efficiency</v>
+          </cell>
+          <cell r="B8">
+            <v>2.0499999999999998</v>
+          </cell>
+          <cell r="E8">
+            <v>0.24194515912116535</v>
+          </cell>
+          <cell r="I8">
+            <v>2.0333333333333332</v>
+          </cell>
+          <cell r="L8">
+            <v>0.23986619671897502</v>
+          </cell>
+          <cell r="P8">
+            <v>2.0333333333333332</v>
+          </cell>
+          <cell r="S8">
+            <v>0.30593435456493984</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Dependability</v>
+          </cell>
+          <cell r="B9">
+            <v>1.8916666666666666</v>
+          </cell>
+          <cell r="E9">
+            <v>0.26367736843061423</v>
+          </cell>
+          <cell r="I9">
+            <v>1.6833333333333333</v>
+          </cell>
+          <cell r="L9">
+            <v>0.31484128536853473</v>
+          </cell>
+          <cell r="P9">
+            <v>1.7</v>
+          </cell>
+          <cell r="S9">
+            <v>0.41920469962745754</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Stimulation</v>
+          </cell>
+          <cell r="B10">
+            <v>1.425</v>
+          </cell>
+          <cell r="E10">
+            <v>0.31884048400050041</v>
+          </cell>
+          <cell r="I10">
+            <v>1.3583333333333334</v>
+          </cell>
+          <cell r="L10">
+            <v>0.33852740042837631</v>
+          </cell>
+          <cell r="P10">
+            <v>1.2</v>
+          </cell>
+          <cell r="S10">
+            <v>0.43606948411876179</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Novelty</v>
+          </cell>
+          <cell r="B11">
+            <v>0.55833333333333335</v>
+          </cell>
+          <cell r="E11">
+            <v>0.4215517353142017</v>
+          </cell>
+          <cell r="I11">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="L11">
+            <v>0.41051257324815138</v>
+          </cell>
+          <cell r="P11">
+            <v>0.4</v>
+          </cell>
+          <cell r="S11">
+            <v>0.39193846138388561</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1288,34 +1642,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1542,13 +1896,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1565,7 +1920,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
@@ -1579,7 +1934,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -1593,7 +1948,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -1607,7 +1962,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1621,7 +1976,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
@@ -1635,7 +1990,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -1649,7 +2004,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1663,7 +2018,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1677,7 +2032,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
@@ -1691,7 +2046,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -1701,7 +2056,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -1715,6 +2070,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>